--- a/JSON tools.xlsx
+++ b/JSON tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Opis" sheetId="3" r:id="rId1"/>
@@ -163,6 +163,8 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,6 +172,8 @@
       <sz val="18"/>
       <color rgb="FF4F81BD"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -746,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
@@ -881,6 +885,15 @@
     <row r="8" spans="1:5" ht="31.5">
       <c r="A8" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
@@ -904,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>

--- a/JSON tools.xlsx
+++ b/JSON tools.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Przemek\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B7D984-6CE3-411A-871C-A24B0AF38107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opis" sheetId="3" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="1" r:id="rId2"/>
     <sheet name="Sprint Backlog #1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sprint Backlog #2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Element rejestru produktu</t>
   </si>
@@ -146,12 +153,51 @@
   <si>
     <t>Zadanie nr 2 implementacja formatu wynikowego</t>
   </si>
+  <si>
+    <t>Jako użytkownik chcę otrzymać łatwiejszą opcję do przesyłania i otrzymywania JSONa</t>
+  </si>
+  <si>
+    <t>Zadanie nr 1 Implementacja przycisku przesyłania</t>
+  </si>
+  <si>
+    <t>Zadanie nr 2 Implementacja przycisku pobierania</t>
+  </si>
+  <si>
+    <t>Jako programista mogę zagwarantować poprawność działania API</t>
+  </si>
+  <si>
+    <t>Zadanie nr 1 implementacja testów jednostkowych testujących funkcjonalność</t>
+  </si>
+  <si>
+    <t>Zadanie nr 2 implementacja testów jednostkowych testujących wyjątki</t>
+  </si>
+  <si>
+    <t>Jako programista mogę skonwertować JSON do XML</t>
+  </si>
+  <si>
+    <t>Jako programista mogę skonwertować XML do JSON</t>
+  </si>
+  <si>
+    <t>Zadanie nr 1 Implementacja konwertera JSONa do XMLa</t>
+  </si>
+  <si>
+    <t>Zadanie nr 1 Implementacja konwertera XMLa do JSONa</t>
+  </si>
+  <si>
+    <t>Jako użytkownik mogę używać bardziej przyjaznego GUI</t>
+  </si>
+  <si>
+    <t>Zadanie nr 1 rozdzielenie pola "json" I "keys" dla łatwiejszej obsługi operacji "filter" I "extract"</t>
+  </si>
+  <si>
+    <t>Zadanie nr 2 dodanie porównania między dwoma plikami JSON I wyświetlenie różnic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,20 +246,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -247,7 +339,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -270,8 +362,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -305,7 +415,7 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
@@ -327,19 +437,19 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -356,33 +466,41 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:E8"/>
-  <sortState ref="A2:E8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:E8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
     <sortCondition descending="1" ref="B1:B8"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Element rejestru produktu" dataDxfId="8"/>
-    <tableColumn id="2" name="Ważność" dataDxfId="7"/>
-    <tableColumn id="3" name="Pracochłonność" dataDxfId="6"/>
-    <tableColumn id="4" name="Business Value (BV)" dataDxfId="5"/>
-    <tableColumn id="5" name="Kryteria akceptacji" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Element rejestru produktu" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ważność" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pracochłonność" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Business Value (BV)" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Kryteria akceptacji" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A4:C41" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A4:C41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A4:C41" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A4:C41" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Element rejestru produktu" dataDxfId="2"/>
-    <tableColumn id="2" name="Zadania" dataDxfId="1"/>
-    <tableColumn id="3" name="Pracochłonność " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Element rejestru produktu" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Zadania" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Pracochłonność " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -709,29 +827,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="95.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.25">
+    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="102" customHeight="1">
+    <row r="2" spans="1:1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="31.5">
+    <row r="4" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
@@ -747,14 +865,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="3" bestFit="1" customWidth="1"/>
@@ -763,7 +881,7 @@
     <col min="5" max="5" width="58.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -780,7 +898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="94.5">
+    <row r="2" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -797,7 +915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="52.7" customHeight="1">
+    <row r="3" spans="1:5" ht="52.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -814,7 +932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="47.25">
+    <row r="4" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -831,7 +949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="63">
+    <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -848,7 +966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="63">
+    <row r="6" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -865,7 +983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="78.75">
+    <row r="7" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -882,7 +1000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="31.5">
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -914,26 +1032,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="48.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="33" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -944,7 +1062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="47.25">
+    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -952,7 +1070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
@@ -960,7 +1078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
@@ -968,7 +1086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5">
+    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -976,7 +1094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="63">
+    <row r="9" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -984,7 +1102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
@@ -992,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1000,7 +1118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1008,7 +1126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1016,7 +1134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1024,7 +1142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1032,7 +1150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="47.25">
+    <row r="16" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1040,7 +1158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1048,7 +1166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
@@ -1056,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="47.25">
+    <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1064,7 +1182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
@@ -1072,7 +1190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
@@ -1080,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="63">
+    <row r="22" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1088,7 +1206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
@@ -1096,7 +1214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
@@ -1116,4 +1234,152 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA48E4F8-AB7F-4852-B7B3-8279D27BC715}">
+  <dimension ref="A2:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.375" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>